--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_8_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_8_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1511983.614815508</v>
+        <v>-1514257.634942946</v>
       </c>
     </row>
     <row r="7">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>256.0233835282157</v>
+        <v>263.1593969143312</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>414.0459034711861</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>162.0217950910661</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>70.91951642794434</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>180.3799638097597</v>
+        <v>180.3799638097599</v>
       </c>
       <c r="T2" t="n">
-        <v>217.594058536745</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2451061843206</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>67.73990140966623</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -744,19 +744,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.6710516650733</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>105.7408432413276</v>
+        <v>88.36065960835916</v>
       </c>
       <c r="I3" t="n">
-        <v>66.24376372694833</v>
+        <v>66.24376372694847</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>58.40598506653493</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>159.1924194169441</v>
       </c>
       <c r="T3" t="n">
         <v>197.4542208317152</v>
       </c>
       <c r="U3" t="n">
-        <v>131.7992296598276</v>
+        <v>225.8971409297816</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -826,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>117.4248894057078</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.4272068744005</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>131.412049849003</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>214.1915812011576</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.5367433600327</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2882781300877</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>324.4976188972876</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>164.1325704929008</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T6" t="n">
-        <v>196.8897623984484</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U6" t="n">
         <v>225.8879277888686</v>
@@ -1057,7 +1057,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>166.2882094486594</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>213.6743229269905</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>359.7648355827137</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>304.2986207869605</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>205.1332020905459</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>88.06311349350455</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1421,7 +1421,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>60.61620153654092</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>201.6936400577267</v>
+        <v>286.2118382056101</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>16.24966009683267</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>6.430825802817566</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1850,19 +1850,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534537</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>37.38100496017487</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>103.1340411809964</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396201</v>
@@ -2242,10 +2242,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>69.42642470280676</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>140.8993768737594</v>
       </c>
     </row>
     <row r="23">
@@ -2415,7 +2415,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>163.689844124971</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>145.6911677128805</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>163.689844124971</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292724</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>61.60385878691238</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2956,10 +2956,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>173.6268892744757</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3193,19 +3193,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F34" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404359</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124633</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T35" t="n">
         <v>156.9428335210276</v>
@@ -3427,22 +3427,22 @@
         <v>120.2716844800353</v>
       </c>
       <c r="D37" t="n">
-        <v>101.6403363996201</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F37" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G37" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C40" t="n">
         <v>120.2716844800353</v>
@@ -3667,19 +3667,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F40" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145479</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U40" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X40" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3752,7 @@
         <v>359.9009091231189</v>
       </c>
       <c r="G41" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348615</v>
       </c>
       <c r="H41" t="n">
         <v>247.6326277687279</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3806,7 +3806,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y41" t="n">
-        <v>339.2628020374617</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824775</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F43" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3986,7 +3986,7 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F44" t="n">
-        <v>359.9009091231196</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G44" t="n">
         <v>363.9465890348609</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
         <v>120.2716844800353</v>
@@ -4141,19 +4141,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797664</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U46" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X46" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1521.504243234859</v>
+        <v>477.3683737318508</v>
       </c>
       <c r="C2" t="n">
-        <v>1262.89476492353</v>
+        <v>211.5508010911122</v>
       </c>
       <c r="D2" t="n">
-        <v>1262.89476492353</v>
+        <v>211.5508010911122</v>
       </c>
       <c r="E2" t="n">
-        <v>877.1065123252856</v>
+        <v>211.5508010911122</v>
       </c>
       <c r="F2" t="n">
-        <v>466.1206075356781</v>
+        <v>211.5508010911122</v>
       </c>
       <c r="G2" t="n">
-        <v>47.89242221124768</v>
+        <v>211.5508010911122</v>
       </c>
       <c r="H2" t="n">
-        <v>47.89242221124768</v>
+        <v>211.5508010911122</v>
       </c>
       <c r="I2" t="n">
-        <v>47.89242221124768</v>
+        <v>47.89242221124749</v>
       </c>
       <c r="J2" t="n">
-        <v>141.6681220034136</v>
+        <v>141.6681220034126</v>
       </c>
       <c r="K2" t="n">
-        <v>402.9583913971219</v>
+        <v>402.9583913971198</v>
       </c>
       <c r="L2" t="n">
-        <v>779.3887029883426</v>
+        <v>779.388702988339</v>
       </c>
       <c r="M2" t="n">
-        <v>1214.846500462594</v>
+        <v>1214.846500462589</v>
       </c>
       <c r="N2" t="n">
-        <v>1642.718462811277</v>
+        <v>1642.718462811271</v>
       </c>
       <c r="O2" t="n">
-        <v>2001.558186006097</v>
+        <v>2001.558186006089</v>
       </c>
       <c r="P2" t="n">
-        <v>2270.145204794931</v>
+        <v>2270.145204794922</v>
       </c>
       <c r="Q2" t="n">
-        <v>2394.621110562384</v>
+        <v>2394.621110562375</v>
       </c>
       <c r="R2" t="n">
-        <v>2322.985235382643</v>
+        <v>2394.621110562375</v>
       </c>
       <c r="S2" t="n">
-        <v>2140.783251736421</v>
+        <v>2212.419126916152</v>
       </c>
       <c r="T2" t="n">
-        <v>1920.991273416476</v>
+        <v>2212.419126916152</v>
       </c>
       <c r="U2" t="n">
-        <v>1920.991273416476</v>
+        <v>1958.636191376435</v>
       </c>
       <c r="V2" t="n">
-        <v>1589.928386072906</v>
+        <v>1627.573304032864</v>
       </c>
       <c r="W2" t="n">
-        <v>1521.504243234859</v>
+        <v>1627.573304032864</v>
       </c>
       <c r="X2" t="n">
-        <v>1521.504243234859</v>
+        <v>1254.107545771784</v>
       </c>
       <c r="Y2" t="n">
-        <v>1521.504243234859</v>
+        <v>863.9682137959726</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.825266691135</v>
+        <v>673.9805033038192</v>
       </c>
       <c r="C3" t="n">
-        <v>814.372237410008</v>
+        <v>499.5274740226922</v>
       </c>
       <c r="D3" t="n">
-        <v>665.4378277487567</v>
+        <v>350.593064361441</v>
       </c>
       <c r="E3" t="n">
-        <v>506.2003727433013</v>
+        <v>350.593064361441</v>
       </c>
       <c r="F3" t="n">
-        <v>359.6658147701863</v>
+        <v>204.0585063883259</v>
       </c>
       <c r="G3" t="n">
-        <v>221.6142474317284</v>
+        <v>204.0585063883259</v>
       </c>
       <c r="H3" t="n">
-        <v>114.8053148647309</v>
+        <v>114.8053148647308</v>
       </c>
       <c r="I3" t="n">
-        <v>47.89242221124768</v>
+        <v>47.89242221124749</v>
       </c>
       <c r="J3" t="n">
-        <v>110.0512068966011</v>
+        <v>47.89242221124749</v>
       </c>
       <c r="K3" t="n">
-        <v>342.9113135442394</v>
+        <v>280.7525288588852</v>
       </c>
       <c r="L3" t="n">
-        <v>717.4248599408254</v>
+        <v>655.2660752554702</v>
       </c>
       <c r="M3" t="n">
-        <v>1206.443725563169</v>
+        <v>1144.284940877813</v>
       </c>
       <c r="N3" t="n">
-        <v>1523.324441723574</v>
+        <v>1523.324441723567</v>
       </c>
       <c r="O3" t="n">
-        <v>1930.474537907027</v>
+        <v>1930.474537907018</v>
       </c>
       <c r="P3" t="n">
-        <v>2240.245317403387</v>
+        <v>2240.245317403378</v>
       </c>
       <c r="Q3" t="n">
-        <v>2394.621110562384</v>
+        <v>2394.621110562375</v>
       </c>
       <c r="R3" t="n">
-        <v>2394.621110562384</v>
+        <v>2335.625166050723</v>
       </c>
       <c r="S3" t="n">
-        <v>2394.621110562384</v>
+        <v>2174.824742397244</v>
       </c>
       <c r="T3" t="n">
-        <v>2195.172402651561</v>
+        <v>1975.376034486421</v>
       </c>
       <c r="U3" t="n">
-        <v>2062.041867641634</v>
+        <v>1747.197104254318</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.889759409891</v>
+        <v>1512.044996022576</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.65240268169</v>
+        <v>1257.807639294374</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.800902476157</v>
+        <v>1049.956139088841</v>
       </c>
       <c r="Y3" t="n">
-        <v>1157.040603711203</v>
+        <v>842.1958403238873</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>335.6218123931753</v>
+        <v>47.89242221124749</v>
       </c>
       <c r="C4" t="n">
-        <v>335.6218123931753</v>
+        <v>47.89242221124749</v>
       </c>
       <c r="D4" t="n">
-        <v>335.6218123931753</v>
+        <v>47.89242221124749</v>
       </c>
       <c r="E4" t="n">
-        <v>335.6218123931753</v>
+        <v>47.89242221124749</v>
       </c>
       <c r="F4" t="n">
-        <v>217.0108129934705</v>
+        <v>47.89242221124749</v>
       </c>
       <c r="G4" t="n">
-        <v>47.89242221124768</v>
+        <v>47.89242221124749</v>
       </c>
       <c r="H4" t="n">
-        <v>47.89242221124768</v>
+        <v>47.89242221124749</v>
       </c>
       <c r="I4" t="n">
-        <v>47.89242221124768</v>
+        <v>47.89242221124749</v>
       </c>
       <c r="J4" t="n">
-        <v>47.89242221124768</v>
+        <v>47.89242221124749</v>
       </c>
       <c r="K4" t="n">
-        <v>90.69073642000097</v>
+        <v>90.69073642000038</v>
       </c>
       <c r="L4" t="n">
-        <v>200.9842782663083</v>
+        <v>200.9842782663071</v>
       </c>
       <c r="M4" t="n">
-        <v>327.6624769420746</v>
+        <v>327.6624769420729</v>
       </c>
       <c r="N4" t="n">
-        <v>456.7631676148802</v>
+        <v>456.7631676148781</v>
       </c>
       <c r="O4" t="n">
-        <v>559.9922554890154</v>
+        <v>559.9922554890128</v>
       </c>
       <c r="P4" t="n">
-        <v>624.8018913124558</v>
+        <v>624.8018913124529</v>
       </c>
       <c r="Q4" t="n">
-        <v>624.8018913124558</v>
+        <v>624.8018913124529</v>
       </c>
       <c r="R4" t="n">
-        <v>624.8018913124558</v>
+        <v>492.0624470205306</v>
       </c>
       <c r="S4" t="n">
-        <v>624.8018913124558</v>
+        <v>275.7073144941088</v>
       </c>
       <c r="T4" t="n">
-        <v>624.8018913124558</v>
+        <v>47.89242221124749</v>
       </c>
       <c r="U4" t="n">
-        <v>335.6218123931753</v>
+        <v>47.89242221124749</v>
       </c>
       <c r="V4" t="n">
-        <v>335.6218123931753</v>
+        <v>47.89242221124749</v>
       </c>
       <c r="W4" t="n">
-        <v>335.6218123931753</v>
+        <v>47.89242221124749</v>
       </c>
       <c r="X4" t="n">
-        <v>335.6218123931753</v>
+        <v>47.89242221124749</v>
       </c>
       <c r="Y4" t="n">
-        <v>335.6218123931753</v>
+        <v>47.89242221124749</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1662.124202655613</v>
+        <v>953.9071733620844</v>
       </c>
       <c r="C5" t="n">
-        <v>1293.161685715201</v>
+        <v>584.9446564216728</v>
       </c>
       <c r="D5" t="n">
-        <v>934.895987108451</v>
+        <v>226.6789578149223</v>
       </c>
       <c r="E5" t="n">
-        <v>549.1077345102067</v>
+        <v>226.6789578149223</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>219.7334570657188</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224075</v>
@@ -4577,7 +4577,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>2388.358616186807</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W5" t="n">
-        <v>2035.589960916693</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X5" t="n">
-        <v>1662.124202655613</v>
+        <v>1344.046505337896</v>
       </c>
       <c r="Y5" t="n">
-        <v>1662.124202655613</v>
+        <v>953.9071733620844</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4653,16 +4653,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4674,13 +4674,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>530.7441767280769</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C7" t="n">
-        <v>361.80799380017</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>530.7441767280769</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>530.7441767280769</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>530.7441767280769</v>
+        <v>512.2963347852319</v>
       </c>
       <c r="V7" t="n">
-        <v>530.7441767280769</v>
+        <v>512.2963347852319</v>
       </c>
       <c r="W7" t="n">
-        <v>530.7441767280769</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="X7" t="n">
-        <v>530.7441767280769</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y7" t="n">
-        <v>530.7441767280769</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1233.603060210037</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="C8" t="n">
-        <v>864.6405432696254</v>
+        <v>1701.754562310252</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1701.754562310252</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>1315.966309712008</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2267.209817970484</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V8" t="n">
-        <v>1959.837473741231</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W8" t="n">
-        <v>1607.068818471117</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="X8" t="n">
-        <v>1233.603060210037</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="Y8" t="n">
-        <v>1233.603060210037</v>
+        <v>2070.717079250664</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4893,13 +4893,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U10" t="n">
-        <v>343.360151857325</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="V10" t="n">
-        <v>343.360151857325</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="11">
@@ -5039,25 +5039,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>785.6651881176194</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L11" t="n">
-        <v>1650.184003770974</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M11" t="n">
-        <v>2183.715908442899</v>
+        <v>2782.232616025903</v>
       </c>
       <c r="N11" t="n">
-        <v>2920.758180993045</v>
+        <v>3329.011433084685</v>
       </c>
       <c r="O11" t="n">
-        <v>3800.7228313225</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q11" t="n">
         <v>4653.975400188666</v>
@@ -5069,16 +5069,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
@@ -5121,49 +5121,49 @@
         <v>189.238303939012</v>
       </c>
       <c r="K12" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>806.069814334827</v>
+        <v>619.855984141383</v>
       </c>
       <c r="C13" t="n">
-        <v>637.1336314069201</v>
+        <v>450.9198012134761</v>
       </c>
       <c r="D13" t="n">
-        <v>487.0169919945844</v>
+        <v>450.9198012134761</v>
       </c>
       <c r="E13" t="n">
-        <v>339.1038984121913</v>
+        <v>303.006707631083</v>
       </c>
       <c r="F13" t="n">
-        <v>339.1038984121913</v>
+        <v>303.006707631083</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5221,28 +5221,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1752.612516551445</v>
+        <v>1163.95764238423</v>
       </c>
       <c r="V13" t="n">
-        <v>1497.928028345558</v>
+        <v>909.2731541783436</v>
       </c>
       <c r="W13" t="n">
-        <v>1208.510858308597</v>
+        <v>619.855984141383</v>
       </c>
       <c r="X13" t="n">
-        <v>1208.510858308597</v>
+        <v>619.855984141383</v>
       </c>
       <c r="Y13" t="n">
-        <v>987.7182791650667</v>
+        <v>619.855984141383</v>
       </c>
     </row>
     <row r="14">
@@ -5255,46 +5255,46 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1549.639626139993</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483406</v>
+        <v>2528.189928969822</v>
       </c>
       <c r="N14" t="n">
-        <v>2637.914081542188</v>
+        <v>3507.942201196468</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q14" t="n">
         <v>4653.975400188666</v>
@@ -5315,7 +5315,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>720.69789701373</v>
+        <v>392.5676213586405</v>
       </c>
       <c r="C16" t="n">
-        <v>720.69789701373</v>
+        <v>392.5676213586405</v>
       </c>
       <c r="D16" t="n">
-        <v>720.69789701373</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E16" t="n">
-        <v>572.7848034313369</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F16" t="n">
-        <v>425.8948559334265</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>258.1920193081454</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>111.9748325260032</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5458,28 +5458,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1667.240599230347</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V16" t="n">
-        <v>1412.556111024461</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W16" t="n">
-        <v>1123.1389409875</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X16" t="n">
-        <v>1123.1389409875</v>
+        <v>613.3602005021706</v>
       </c>
       <c r="Y16" t="n">
-        <v>902.3463618439697</v>
+        <v>392.5676213586405</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001585</v>
@@ -5516,19 +5516,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>939.1634975427194</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L17" t="n">
-        <v>1797.117834600129</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M17" t="n">
-        <v>2330.649739272054</v>
+        <v>2782.232616025902</v>
       </c>
       <c r="N17" t="n">
-        <v>2877.428556330836</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O17" t="n">
-        <v>3757.393206660291</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P17" t="n">
         <v>4470.748294107237</v>
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5607,25 +5607,25 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5634,10 +5634,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>301.0224619425389</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C19" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
         <v>95.56103444839442</v>
@@ -5674,7 +5674,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5686,37 +5686,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T19" t="n">
-        <v>1764.65758193153</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1475.554715057174</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V19" t="n">
-        <v>1220.870226851287</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W19" t="n">
-        <v>931.4530568143261</v>
+        <v>894.9278122480886</v>
       </c>
       <c r="X19" t="n">
-        <v>703.4635059163088</v>
+        <v>666.9382613500712</v>
       </c>
       <c r="Y19" t="n">
-        <v>482.6709267727787</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
@@ -5750,46 +5750,46 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483406</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542188</v>
+        <v>3027.596327402151</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>3907.560977731605</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4302.335344088783</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
@@ -5835,7 +5835,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5847,22 +5847,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>658.1567207524339</v>
+        <v>412.4103109586945</v>
       </c>
       <c r="C22" t="n">
-        <v>489.220537824527</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D22" t="n">
-        <v>339.1038984121913</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5932,28 +5932,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1674.827124689058</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1604.699422969051</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>1350.014934763164</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="W22" t="n">
-        <v>1060.597764726204</v>
+        <v>964.3709295897388</v>
       </c>
       <c r="X22" t="n">
-        <v>1060.597764726204</v>
+        <v>736.3813786917215</v>
       </c>
       <c r="Y22" t="n">
-        <v>839.8051855826736</v>
+        <v>594.0587757889342</v>
       </c>
     </row>
     <row r="23">
@@ -5990,22 +5990,22 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1803.682313196074</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2782.232616025903</v>
+        <v>2439.038619608516</v>
       </c>
       <c r="N23" t="n">
-        <v>3329.011433084685</v>
+        <v>2985.817436667298</v>
       </c>
       <c r="O23" t="n">
-        <v>3831.983903964022</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q23" t="n">
         <v>4719.034655862919</v>
@@ -6042,13 +6042,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E24" t="n">
         <v>487.9678785494859</v>
@@ -6057,7 +6057,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
         <v>114.5683260468565</v>
@@ -6121,10 +6121,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839442</v>
+        <v>392.8404695303064</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839442</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D25" t="n">
         <v>95.56103444839442</v>
@@ -6169,28 +6169,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U25" t="n">
-        <v>1253.788099626699</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V25" t="n">
-        <v>999.1036114208126</v>
+        <v>1131.039769608815</v>
       </c>
       <c r="W25" t="n">
-        <v>709.6864413838521</v>
+        <v>841.6225995718539</v>
       </c>
       <c r="X25" t="n">
-        <v>481.6968904858347</v>
+        <v>613.6330486738366</v>
       </c>
       <c r="Y25" t="n">
-        <v>260.9043113423046</v>
+        <v>392.8404695303064</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001593</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
@@ -6242,10 +6242,10 @@
         <v>3907.560977731605</v>
       </c>
       <c r="P26" t="n">
-        <v>4302.335344088783</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6257,19 +6257,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6279,64 +6279,64 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
         <v>427.502502919359</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6406,28 +6406,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V28" t="n">
-        <v>999.1036114208126</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W28" t="n">
-        <v>709.6864413838521</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X28" t="n">
-        <v>481.6968904858347</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y28" t="n">
-        <v>260.9043113423046</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749766</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
         <v>1646.988141143015</v>
@@ -6449,64 +6449,64 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551633</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001598</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.557933208927</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074199</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972664</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1069.293752345675</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2047.844055175504</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N29" t="n">
-        <v>3027.596327402151</v>
+        <v>3008.107474639232</v>
       </c>
       <c r="O29" t="n">
-        <v>3907.560977731605</v>
+        <v>3511.079945518569</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107238</v>
+        <v>4224.435032965514</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.03465586292</v>
+        <v>4682.913235474502</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604876</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261305</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991191</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730111</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6516,34 +6516,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L30" t="n">
         <v>794.2006632320242</v>
@@ -6558,22 +6558,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839444</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839444</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839444</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839444</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6646,25 +6646,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1780.96276986786</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T31" t="n">
-        <v>1559.196154437386</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U31" t="n">
-        <v>1270.093287563029</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V31" t="n">
-        <v>1015.408799357142</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W31" t="n">
-        <v>725.9916293201816</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X31" t="n">
-        <v>498.0020784221642</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.2094992786342</v>
+        <v>452.5901955154781</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551634</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>785.6651881176194</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L32" t="n">
-        <v>1236.699401366028</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M32" t="n">
-        <v>1941.005908766399</v>
+        <v>1923.729615463053</v>
       </c>
       <c r="N32" t="n">
-        <v>2920.758180993046</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O32" t="n">
-        <v>3800.7228313225</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679679</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188667</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6774,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
         <v>189.2383039390118</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>788.5151678215057</v>
+        <v>788.5151678215061</v>
       </c>
       <c r="C34" t="n">
-        <v>667.028617841672</v>
+        <v>667.0286178416725</v>
       </c>
       <c r="D34" t="n">
-        <v>564.3616113774096</v>
+        <v>564.3616113774101</v>
       </c>
       <c r="E34" t="n">
-        <v>463.8981507430898</v>
+        <v>463.8981507430903</v>
       </c>
       <c r="F34" t="n">
-        <v>364.4578361932527</v>
+        <v>364.4578361932532</v>
       </c>
       <c r="G34" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160455</v>
       </c>
       <c r="H34" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819766</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
         <v>187.1890521477366</v>
@@ -6862,7 +6862,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L34" t="n">
-        <v>800.7468040499224</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M34" t="n">
         <v>1191.409234901878</v>
@@ -6877,13 +6877,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q34" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R34" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S34" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T34" t="n">
         <v>1967.452490122057</v>
@@ -6892,7 +6892,7 @@
         <v>1725.799256195774</v>
       </c>
       <c r="V34" t="n">
-        <v>1518.56440093796</v>
+        <v>1518.564400937961</v>
       </c>
       <c r="W34" t="n">
         <v>1276.596863849073</v>
@@ -6901,7 +6901,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y34" t="n">
-        <v>922.713999703672</v>
+        <v>922.7139997036725</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C35" t="n">
         <v>1711.594658697161</v>
@@ -6923,7 +6923,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G35" t="n">
         <v>331.2808843398487</v>
@@ -6935,25 +6935,25 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J35" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K35" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L35" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M35" t="n">
-        <v>1755.817188486248</v>
+        <v>2033.429937623799</v>
       </c>
       <c r="N35" t="n">
-        <v>2302.59600554503</v>
+        <v>2580.208754682581</v>
       </c>
       <c r="O35" t="n">
-        <v>2805.568476424367</v>
+        <v>3083.181225561918</v>
       </c>
       <c r="P35" t="n">
-        <v>3474.791320094414</v>
+        <v>3477.955591919096</v>
       </c>
       <c r="Q35" t="n">
         <v>3933.269522603402</v>
@@ -6968,7 +6968,7 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U35" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V35" t="n">
         <v>3346.282596468334</v>
@@ -6977,7 +6977,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X35" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y35" t="n">
         <v>2372.257749805548</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502698005</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899668</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D37" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913843</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F37" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G37" t="n">
         <v>229.7905149643395</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302707</v>
       </c>
       <c r="I37" t="n">
         <v>81.14691689668915</v>
@@ -7096,16 +7096,16 @@
         <v>172.7749345960313</v>
       </c>
       <c r="K37" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L37" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M37" t="n">
         <v>1176.995117350173</v>
       </c>
       <c r="N37" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308445</v>
       </c>
       <c r="O37" t="n">
         <v>1910.743863481264</v>
@@ -7114,13 +7114,13 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q37" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R37" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S37" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T37" t="n">
         <v>1953.038372570352</v>
@@ -7135,10 +7135,10 @@
         <v>1262.182746297368</v>
       </c>
       <c r="X37" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519668</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="38">
@@ -7151,52 +7151,52 @@
         <v>2033.1075426895</v>
       </c>
       <c r="C38" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D38" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E38" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467795</v>
       </c>
       <c r="G38" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H38" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I38" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J38" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K38" t="n">
-        <v>771.2510705659141</v>
+        <v>887.9771891384785</v>
       </c>
       <c r="L38" t="n">
-        <v>1222.285283814323</v>
+        <v>1339.011402386887</v>
       </c>
       <c r="M38" t="n">
-        <v>1755.817188486248</v>
+        <v>1872.543307058812</v>
       </c>
       <c r="N38" t="n">
-        <v>2302.59600554503</v>
+        <v>2852.295579285459</v>
       </c>
       <c r="O38" t="n">
-        <v>2805.568476424367</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P38" t="n">
-        <v>3518.923563871313</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q38" t="n">
-        <v>3977.401766380301</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R38" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S38" t="n">
         <v>3994.504809309627</v>
@@ -7208,16 +7208,16 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W38" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X38" t="n">
         <v>2714.947448833287</v>
       </c>
       <c r="Y38" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I39" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J39" t="n">
         <v>174.8241863873065</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502698005</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899668</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257043</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913845</v>
+        <v>449.4840331913843</v>
       </c>
       <c r="F40" t="n">
-        <v>350.0437186415475</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643397</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H40" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I40" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J40" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K40" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L40" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M40" t="n">
         <v>1176.995117350173</v>
@@ -7351,7 +7351,7 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q40" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R40" t="n">
         <v>2271.591606277852</v>
@@ -7363,19 +7363,19 @@
         <v>1953.038372570352</v>
       </c>
       <c r="U40" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V40" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W40" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X40" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519668</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C41" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D41" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E41" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467795</v>
       </c>
       <c r="G41" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H41" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I41" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J41" t="n">
         <v>270.0260478557146</v>
@@ -7415,25 +7415,25 @@
         <v>603.8454215455611</v>
       </c>
       <c r="L41" t="n">
-        <v>1054.87963479397</v>
+        <v>1453.404136464984</v>
       </c>
       <c r="M41" t="n">
-        <v>1588.411539465894</v>
+        <v>1986.936041136909</v>
       </c>
       <c r="N41" t="n">
-        <v>2135.190356524677</v>
+        <v>2533.714858195691</v>
       </c>
       <c r="O41" t="n">
-        <v>3015.155006854131</v>
+        <v>3036.687329075028</v>
       </c>
       <c r="P41" t="n">
-        <v>3728.510094301078</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q41" t="n">
-        <v>3976.79645605676</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R41" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S41" t="n">
         <v>3994.504809309627</v>
@@ -7445,16 +7445,16 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V41" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W41" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X41" t="n">
         <v>2714.947448833287</v>
       </c>
       <c r="Y41" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456144</v>
       </c>
       <c r="C42" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644874</v>
       </c>
       <c r="D42" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032362</v>
       </c>
       <c r="E42" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F42" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G42" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H42" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I42" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J42" t="n">
         <v>174.8241863873065</v>
@@ -7533,7 +7533,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y42" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="43">
@@ -7549,13 +7549,13 @@
         <v>652.6145002899666</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913843</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G43" t="n">
         <v>229.7905149643395</v>
@@ -7564,7 +7564,7 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I43" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J43" t="n">
         <v>172.7749345960314</v>
@@ -7597,7 +7597,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T43" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U43" t="n">
         <v>1711.385138644068</v>
@@ -7634,43 +7634,43 @@
         <v>1062.439973388314</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467795</v>
       </c>
       <c r="G44" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398493</v>
       </c>
       <c r="H44" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668979</v>
       </c>
       <c r="I44" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J44" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K44" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L44" t="n">
-        <v>1222.285283814323</v>
+        <v>1339.011402386887</v>
       </c>
       <c r="M44" t="n">
-        <v>1755.817188486248</v>
+        <v>1872.543307058812</v>
       </c>
       <c r="N44" t="n">
-        <v>2302.59600554503</v>
+        <v>2852.295579285459</v>
       </c>
       <c r="O44" t="n">
-        <v>2805.568476424367</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P44" t="n">
-        <v>3474.791320094415</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q44" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R44" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S44" t="n">
         <v>3994.504809309627</v>
@@ -7682,10 +7682,10 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W44" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X44" t="n">
         <v>2714.947448833287</v>
@@ -7722,7 +7722,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I45" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J45" t="n">
         <v>174.8241863873065</v>
@@ -7731,7 +7731,7 @@
         <v>413.0883853676536</v>
       </c>
       <c r="L45" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M45" t="n">
         <v>1227.062870902635</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D46" t="n">
-        <v>549.9474938257036</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913838</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415467</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643389</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H46" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I46" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J46" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K46" t="n">
         <v>423.2675027973143</v>
       </c>
       <c r="L46" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M46" t="n">
         <v>1176.995117350173</v>
@@ -7834,7 +7834,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T46" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U46" t="n">
         <v>1711.385138644068</v>
@@ -7849,7 +7849,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>63.30438414308259</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>276.5261752512601</v>
+        <v>339.3128264485832</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,28 +8687,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>192.1853085771352</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>180.7381496078621</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8924,28 +8924,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>161.0524397463283</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9167,19 +9167,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>411.0304280899001</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>246.4545694808461</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>170.1140909277309</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9638,25 +9638,25 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>426.998343622192</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>246.4545694808451</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9890,13 +9890,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>104.3976710547475</v>
       </c>
       <c r="Q26" t="n">
-        <v>170.1140909277309</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10115,25 +10115,25 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>170.1140909277314</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>36.48628322062227</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>172.4995987156022</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>198.7154374299955</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10601,10 +10601,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>277.2206841544135</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>209.1187564935596</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10820,10 +10820,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>287.0017854473912</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10832,19 +10832,19 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>21.13839585591414</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>402.5500016878933</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>21.74982042514731</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>287.0017854473913</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>277.220684154414</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22547,19 +22547,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>102.1134948566764</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>299.1689104676115</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>14.04590347118615</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22592,7 +22592,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>70.91951642794483</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>281.5010673077468</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22726,7 +22726,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>53.50046549375634</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>20.5320805631485</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22765,13 +22765,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-3.513749910243533e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>105.4096067224873</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>84.51819814788621</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-4.050093593832571e-13</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>80.10276031300542</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>219.2788295862177</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>129.865816138453</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>183.3889571555947</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,10 +24130,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,10 +24142,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>216.7854135028061</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>77.68527647833542</v>
       </c>
     </row>
     <row r="23">
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>16.14213605696625</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>21.55565338574732</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>16.14213605696625</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>118.2281213950249</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24844,10 +24844,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -24886,7 +24886,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>16.14213605696617</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>-2.131628207280301e-13</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>-6.343814490393903e-13</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>134380.7053731738</v>
+        <v>134380.7053731739</v>
       </c>
       <c r="C2" t="n">
         <v>143682.3097262497</v>
       </c>
       <c r="D2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262498</v>
       </c>
       <c r="E2" t="n">
         <v>138978.6254104441</v>
       </c>
       <c r="F2" t="n">
-        <v>138978.6254104441</v>
+        <v>138978.625410444</v>
       </c>
       <c r="G2" t="n">
         <v>138978.6254104441</v>
@@ -26332,13 +26332,13 @@
         <v>138978.6254104441</v>
       </c>
       <c r="I2" t="n">
-        <v>138978.625410444</v>
+        <v>138978.6254104442</v>
       </c>
       <c r="J2" t="n">
         <v>138978.6254104441</v>
       </c>
       <c r="K2" t="n">
-        <v>138978.6254104441</v>
+        <v>138978.625410444</v>
       </c>
       <c r="L2" t="n">
         <v>143682.3097262497</v>
@@ -26350,7 +26350,7 @@
         <v>143682.3097262497</v>
       </c>
       <c r="O2" t="n">
-        <v>143682.3097262498</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="P2" t="n">
         <v>143682.3097262496</v>
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>501884.6814771936</v>
+        <v>501884.6814771909</v>
       </c>
       <c r="C3" t="n">
-        <v>83720.31263904308</v>
+        <v>83720.31263904566</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>156634.5614629961</v>
+        <v>156634.5614629955</v>
       </c>
       <c r="K3" t="n">
-        <v>19465.2553184896</v>
+        <v>19465.25531849015</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487403</v>
+        <v>37580.10929487405</v>
       </c>
       <c r="M3" t="n">
-        <v>84741.61795950522</v>
+        <v>84741.61795950528</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>203100.1933923127</v>
+        <v>203100.1933923135</v>
       </c>
       <c r="C4" t="n">
         <v>209922.4154630333</v>
@@ -26430,34 +26430,34 @@
         <v>28561.83935289575</v>
       </c>
       <c r="G4" t="n">
-        <v>28561.83935289574</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="H4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289571</v>
       </c>
       <c r="I4" t="n">
         <v>28561.83935289576</v>
       </c>
       <c r="J4" t="n">
+        <v>28561.83935289575</v>
+      </c>
+      <c r="K4" t="n">
         <v>28561.83935289576</v>
       </c>
-      <c r="K4" t="n">
-        <v>28561.83935289571</v>
-      </c>
       <c r="L4" t="n">
-        <v>44019.0003311148</v>
+        <v>44019.00033111482</v>
       </c>
       <c r="M4" t="n">
-        <v>64344.18042540619</v>
+        <v>64344.18042540622</v>
       </c>
       <c r="N4" t="n">
+        <v>64344.18042540622</v>
+      </c>
+      <c r="O4" t="n">
         <v>64344.18042540621</v>
       </c>
-      <c r="O4" t="n">
-        <v>64344.18042540618</v>
-      </c>
       <c r="P4" t="n">
-        <v>64344.18042540617</v>
+        <v>64344.18042540625</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76841.33769237215</v>
+        <v>76841.33769237198</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26482,7 +26482,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
         <v>96383.51825371366</v>
@@ -26494,7 +26494,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
         <v>100332.6710141021</v>
@@ -26509,7 +26509,7 @@
         <v>89377.94167480612</v>
       </c>
       <c r="P5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.94167480613</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-647445.5071887047</v>
+        <v>-647578.3872508892</v>
       </c>
       <c r="C6" t="n">
-        <v>-232819.4964392362</v>
+        <v>-232819.4964392387</v>
       </c>
       <c r="D6" t="n">
-        <v>-149099.1838001931</v>
+        <v>-149099.183800193</v>
       </c>
       <c r="E6" t="n">
-        <v>-713344.1461895719</v>
+        <v>-713411.3416797977</v>
       </c>
       <c r="F6" t="n">
-        <v>14033.26780383466</v>
+        <v>13966.07231360886</v>
       </c>
       <c r="G6" t="n">
-        <v>14033.26780383468</v>
+        <v>13966.07231360887</v>
       </c>
       <c r="H6" t="n">
-        <v>14033.26780383466</v>
+        <v>13966.07231360897</v>
       </c>
       <c r="I6" t="n">
-        <v>14033.26780383462</v>
+        <v>13966.07231360894</v>
       </c>
       <c r="J6" t="n">
-        <v>-142601.2936591614</v>
+        <v>-142668.4891493866</v>
       </c>
       <c r="K6" t="n">
-        <v>-5431.987514654844</v>
+        <v>-5499.183004881305</v>
       </c>
       <c r="L6" t="n">
-        <v>-38249.47091384121</v>
+        <v>-38249.47091384123</v>
       </c>
       <c r="M6" t="n">
-        <v>-94781.43033346778</v>
+        <v>-94781.43033346796</v>
       </c>
       <c r="N6" t="n">
+        <v>-10039.81237396265</v>
+      </c>
+      <c r="O6" t="n">
         <v>-10039.8123739626</v>
       </c>
-      <c r="O6" t="n">
-        <v>-10039.81237396249</v>
-      </c>
       <c r="P6" t="n">
-        <v>-10039.81237396272</v>
+        <v>-10039.81237396282</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N2" t="n">
         <v>46.97513661859254</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>312.6374684322898</v>
+        <v>312.6374684322879</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>598.6552776405961</v>
+        <v>598.6552776405937</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>312.6374684322898</v>
+        <v>312.6374684322879</v>
       </c>
       <c r="C3" t="n">
-        <v>65.1061957847968</v>
+        <v>65.10619578479877</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>598.6552776405961</v>
+        <v>598.6552776405937</v>
       </c>
       <c r="C4" t="n">
-        <v>75.63199511395953</v>
+        <v>75.63199511396192</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>598.6552776405961</v>
+        <v>598.6552776405937</v>
       </c>
       <c r="K4" t="n">
-        <v>75.63199511395976</v>
+        <v>75.63199511396192</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>340.0491884540586</v>
+        <v>340.0491884540588</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>598.6552776405961</v>
+        <v>598.6552776405937</v>
       </c>
       <c r="K4" t="n">
-        <v>75.63199511395953</v>
+        <v>75.63199511396192</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>109.2495082427919</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>55.51413115307145</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>326.6032504631754</v>
+        <v>326.6032504631755</v>
       </c>
       <c r="I2" t="n">
-        <v>162.0217950910658</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,19 +27430,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.5940585367451</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2451061843206</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27464,16 +27464,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.6710516650733</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>17.38018363296845</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27503,16 +27503,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>58.40598506653468</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>159.192419416944</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>94.09791126995393</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>27.99615861722343</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.4272068744005</v>
       </c>
       <c r="H4" t="n">
         <v>157.2147226037219</v>
       </c>
       <c r="I4" t="n">
-        <v>138.4962987703072</v>
+        <v>138.4962987703073</v>
       </c>
       <c r="J4" t="n">
-        <v>53.50046549375609</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.95378551841862</v>
+        <v>38.95378551841891</v>
       </c>
       <c r="R4" t="n">
-        <v>151.9441304121514</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>214.1915812011575</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.5367433600327</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2882781300877</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>82.37842684442387</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>249.6515995278942</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2.202682480856311e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27746,7 +27746,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27777,7 +27777,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,25 +27816,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>45.85732950135949</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>72.60755131498726</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>47.11121015899772</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>23.45363768317441</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -28065,13 +28065,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>81.14867215143187</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>198.4598848430865</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-8.242295734817162e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28302,7 +28302,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>2.733694752047692e-12</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -28387,7 +28387,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28548,7 +28548,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -28570,13 +28570,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-3.126388037344441e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-1.06581410364015e-12</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="38">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859193</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859188</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M43" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859188</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.256834043948903</v>
+        <v>1.256834043948895</v>
       </c>
       <c r="H2" t="n">
-        <v>12.87155165259171</v>
+        <v>12.87155165259163</v>
       </c>
       <c r="I2" t="n">
-        <v>48.45409447934013</v>
+        <v>48.45409447933983</v>
       </c>
       <c r="J2" t="n">
-        <v>106.6722184376083</v>
+        <v>106.6722184376076</v>
       </c>
       <c r="K2" t="n">
-        <v>159.8740035179654</v>
+        <v>159.8740035179644</v>
       </c>
       <c r="L2" t="n">
-        <v>198.3378383904667</v>
+        <v>198.3378383904654</v>
       </c>
       <c r="M2" t="n">
-        <v>220.689060819543</v>
+        <v>220.6890608195416</v>
       </c>
       <c r="N2" t="n">
-        <v>224.2600405469128</v>
+        <v>224.2600405469114</v>
       </c>
       <c r="O2" t="n">
-        <v>211.7623970223959</v>
+        <v>211.7623970223946</v>
       </c>
       <c r="P2" t="n">
-        <v>180.7343065624073</v>
+        <v>180.7343065624062</v>
       </c>
       <c r="Q2" t="n">
-        <v>135.7239373634872</v>
+        <v>135.7239373634864</v>
       </c>
       <c r="R2" t="n">
-        <v>78.94960151320534</v>
+        <v>78.94960151320485</v>
       </c>
       <c r="S2" t="n">
-        <v>28.64010577648565</v>
+        <v>28.64010577648548</v>
       </c>
       <c r="T2" t="n">
-        <v>5.501791027386325</v>
+        <v>5.501791027386291</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1005467235159122</v>
+        <v>0.1005467235159116</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6724654981373782</v>
+        <v>0.672465498137374</v>
       </c>
       <c r="H3" t="n">
-        <v>6.49460099516889</v>
+        <v>6.49460099516885</v>
       </c>
       <c r="I3" t="n">
-        <v>23.15286912446675</v>
+        <v>23.15286912446661</v>
       </c>
       <c r="J3" t="n">
-        <v>63.5332425235845</v>
+        <v>63.5332425235841</v>
       </c>
       <c r="K3" t="n">
-        <v>108.5884308987888</v>
+        <v>108.5884308987882</v>
       </c>
       <c r="L3" t="n">
-        <v>146.010545988118</v>
+        <v>146.0105459881171</v>
       </c>
       <c r="M3" t="n">
-        <v>170.3874202955979</v>
+        <v>170.3874202955969</v>
       </c>
       <c r="N3" t="n">
-        <v>174.8970683072298</v>
+        <v>174.8970683072287</v>
       </c>
       <c r="O3" t="n">
-        <v>159.9966485853436</v>
+        <v>159.9966485853427</v>
       </c>
       <c r="P3" t="n">
-        <v>128.4114160434438</v>
+        <v>128.411416043443</v>
       </c>
       <c r="Q3" t="n">
-        <v>85.83963095522041</v>
+        <v>85.83963095521989</v>
       </c>
       <c r="R3" t="n">
-        <v>41.75184908610846</v>
+        <v>41.7518490861082</v>
       </c>
       <c r="S3" t="n">
-        <v>12.49075168689384</v>
+        <v>12.49075168689376</v>
       </c>
       <c r="T3" t="n">
-        <v>2.710507863106361</v>
+        <v>2.710507863106344</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04424115119324858</v>
+        <v>0.04424115119324831</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5637724840582276</v>
+        <v>0.563772484058224</v>
       </c>
       <c r="H4" t="n">
-        <v>5.012449903717699</v>
+        <v>5.012449903717668</v>
       </c>
       <c r="I4" t="n">
-        <v>16.95417615695106</v>
+        <v>16.95417615695096</v>
       </c>
       <c r="J4" t="n">
-        <v>39.85871462291669</v>
+        <v>39.85871462291644</v>
       </c>
       <c r="K4" t="n">
-        <v>65.50011223876497</v>
+        <v>65.50011223876456</v>
       </c>
       <c r="L4" t="n">
-        <v>83.81759276625685</v>
+        <v>83.81759276625634</v>
       </c>
       <c r="M4" t="n">
-        <v>88.37389947832742</v>
+        <v>88.37389947832688</v>
       </c>
       <c r="N4" t="n">
-        <v>86.27256567411045</v>
+        <v>86.27256567410993</v>
       </c>
       <c r="O4" t="n">
-        <v>79.68667801943022</v>
+        <v>79.68667801942973</v>
       </c>
       <c r="P4" t="n">
-        <v>68.18571934464232</v>
+        <v>68.18571934464191</v>
       </c>
       <c r="Q4" t="n">
-        <v>47.20825773327577</v>
+        <v>47.20825773327547</v>
       </c>
       <c r="R4" t="n">
-        <v>25.34926096501811</v>
+        <v>25.34926096501796</v>
       </c>
       <c r="S4" t="n">
-        <v>9.825016835814743</v>
+        <v>9.825016835814683</v>
       </c>
       <c r="T4" t="n">
-        <v>2.40884606824879</v>
+        <v>2.408846068248775</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03075122640317608</v>
+        <v>0.03075122640317589</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32084,7 +32084,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
         <v>609.6478166837925</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32570,7 +32570,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -33026,7 +33026,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138796</v>
@@ -33506,7 +33506,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N33" t="n">
         <v>609.6478166837925</v>
@@ -33746,7 +33746,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
         <v>557.708647897025</v>
@@ -34451,13 +34451,13 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
         <v>557.708647897025</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.72292908299578</v>
+        <v>94.72292908299512</v>
       </c>
       <c r="K2" t="n">
-        <v>263.9295650441496</v>
+        <v>263.9295650441486</v>
       </c>
       <c r="L2" t="n">
-        <v>380.2326379709299</v>
+        <v>380.2326379709286</v>
       </c>
       <c r="M2" t="n">
-        <v>439.8563610851027</v>
+        <v>439.8563610851014</v>
       </c>
       <c r="N2" t="n">
-        <v>432.1939013623061</v>
+        <v>432.1939013623047</v>
       </c>
       <c r="O2" t="n">
-        <v>362.4643668634545</v>
+        <v>362.4643668634532</v>
       </c>
       <c r="P2" t="n">
-        <v>271.3000189786204</v>
+        <v>271.3000189786193</v>
       </c>
       <c r="Q2" t="n">
-        <v>125.7332381489424</v>
+        <v>125.7332381489416</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.78665119732664</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>235.2122289370084</v>
+        <v>235.2122289370078</v>
       </c>
       <c r="L3" t="n">
-        <v>378.296511511703</v>
+        <v>378.2965115117021</v>
       </c>
       <c r="M3" t="n">
-        <v>493.9584501235795</v>
+        <v>493.9584501235785</v>
       </c>
       <c r="N3" t="n">
-        <v>320.0815314751566</v>
+        <v>382.8681826724786</v>
       </c>
       <c r="O3" t="n">
-        <v>411.2627234176288</v>
+        <v>411.2627234176277</v>
       </c>
       <c r="P3" t="n">
-        <v>312.8997772690507</v>
+        <v>312.8997772690499</v>
       </c>
       <c r="Q3" t="n">
-        <v>155.935144605048</v>
+        <v>155.9351446050475</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>43.23062041288212</v>
+        <v>43.23062041288171</v>
       </c>
       <c r="L4" t="n">
-        <v>111.407618026573</v>
+        <v>111.4076180265725</v>
       </c>
       <c r="M4" t="n">
-        <v>127.957776440168</v>
+        <v>127.9577764401675</v>
       </c>
       <c r="N4" t="n">
-        <v>130.404738053339</v>
+        <v>130.4047380533385</v>
       </c>
       <c r="O4" t="n">
-        <v>104.2718059334699</v>
+        <v>104.2718059334694</v>
       </c>
       <c r="P4" t="n">
-        <v>65.46427860953581</v>
+        <v>65.4642786095354</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,19 +35021,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>744.4871439900467</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>688.7911504960812</v>
       </c>
       <c r="P11" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
         <v>125.3296184152072</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>616.6425541386604</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
         <v>125.3296184152072</v>
@@ -35732,7 +35732,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
         <v>478.3061046004592</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L17" t="n">
-        <v>866.6205424822323</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>798.7564048937573</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>420.9083957314504</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36218,7 +36218,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,25 +36358,25 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>965.9194594524188</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>645.216555700217</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
         <v>59.61319854222478</v>
@@ -36610,13 +36610,13 @@
         <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>503.1596572741194</v>
       </c>
       <c r="Q26" t="n">
-        <v>420.9083957314504</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340054</v>
@@ -36835,25 +36835,25 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>568.8760771471033</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>96.09948176284705</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>711.420714545829</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>751.017272842907</v>
       </c>
       <c r="O32" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,7 +37154,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N33" t="n">
         <v>478.3061046004592</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
@@ -37236,7 +37236,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
         <v>337.1912865554005</v>
@@ -37312,7 +37312,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
@@ -37321,10 +37321,10 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>675.9826703737854</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>459.9130612972791</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37394,7 +37394,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
         <v>415.1124034525806</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
@@ -37540,10 +37540,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>624.1930720027917</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923322</v>
@@ -37552,19 +37552,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>80.75159439813892</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
@@ -37783,7 +37783,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>858.1401160802254</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
@@ -37792,7 +37792,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
         <v>720.5606943908545</v>
@@ -37801,7 +37801,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>81.36301896737208</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -37947,7 +37947,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>742.5918998397235</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>675.9826703737858</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,13 +38099,13 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M45" t="n">
         <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
         <v>415.1124034525806</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165875</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
@@ -38184,7 +38184,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
